--- a/state_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
+++ b/state_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U279"/>
+  <dimension ref="A1:U300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,7 +975,7 @@
         <v>0.31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.364026631041518</v>
+        <v>0.364154396378748</v>
       </c>
       <c r="H7" t="n">
         <v>1.2</v>
@@ -1056,7 +1056,7 @@
         <v>0.31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.364026631041518</v>
+        <v>0.364154396378748</v>
       </c>
       <c r="H8" t="n">
         <v>1.2</v>
@@ -1453,7 +1453,7 @@
         <v>0.00929</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0123927006927151</v>
+        <v>0.0123994968607804</v>
       </c>
       <c r="H13" t="n">
         <v>0.05</v>
@@ -1534,7 +1534,7 @@
         <v>0.00929</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0123927006927151</v>
+        <v>0.0123994968607804</v>
       </c>
       <c r="H14" t="n">
         <v>0.05</v>
@@ -1611,7 +1611,7 @@
         <v>0.472</v>
       </c>
       <c r="G15" t="n">
-        <v>0.459876345967368</v>
+        <v>0.459968061899823</v>
       </c>
       <c r="H15" t="n">
         <v>1.38</v>
@@ -1688,7 +1688,7 @@
         <v>0.472</v>
       </c>
       <c r="G16" t="n">
-        <v>0.459876345967368</v>
+        <v>0.459968061899823</v>
       </c>
       <c r="H16" t="n">
         <v>1.38</v>
@@ -1769,10 +1769,10 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.83726933269981</v>
+        <v>1.85349504206863</v>
       </c>
       <c r="H17" t="n">
-        <v>5.95350397529258</v>
+        <v>6.5863066406764</v>
       </c>
       <c r="I17" t="n">
         <v>5.555</v>
@@ -2012,7 +2012,7 @@
         <v>0.01037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0137301634964747</v>
+        <v>0.0137336988847763</v>
       </c>
       <c r="H20" t="n">
         <v>0.066934758036547</v>
@@ -2093,7 +2093,7 @@
         <v>0.01037</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0137301634964747</v>
+        <v>0.0137336988847763</v>
       </c>
       <c r="H21" t="n">
         <v>0.066934758036547</v>
@@ -2170,7 +2170,7 @@
         <v>0.472</v>
       </c>
       <c r="G22" t="n">
-        <v>0.468631321465061</v>
+        <v>0.468699620563698</v>
       </c>
       <c r="H22" t="n">
         <v>1.435</v>
@@ -2247,7 +2247,7 @@
         <v>0.472</v>
       </c>
       <c r="G23" t="n">
-        <v>0.468631321465061</v>
+        <v>0.468699620563698</v>
       </c>
       <c r="H23" t="n">
         <v>1.435</v>
@@ -2482,13 +2482,13 @@
         <v>1.75</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84825231085849</v>
+        <v>1.829702954458</v>
       </c>
       <c r="H26" t="n">
-        <v>6.61085925677348</v>
+        <v>6.5863066406764</v>
       </c>
       <c r="I26" t="n">
-        <v>5.61768</v>
+        <v>5.505</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
         <v>2.517</v>
       </c>
       <c r="N26" t="n">
-        <v>5.29</v>
+        <v>5.0401</v>
       </c>
       <c r="O26" t="n">
         <v>1864903</v>
@@ -2563,7 +2563,7 @@
         <v>0.02</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0218428442564609</v>
+        <v>0.0218429053803294</v>
       </c>
       <c r="H27" t="n">
         <v>0.07000000000000001</v>
@@ -2644,7 +2644,7 @@
         <v>0.02</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0218428442564609</v>
+        <v>0.0218429053803294</v>
       </c>
       <c r="H28" t="n">
         <v>0.07000000000000001</v>
@@ -3065,7 +3065,7 @@
         <v>0.01069</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0154925461476981</v>
+        <v>0.0154938293323632</v>
       </c>
       <c r="H33" t="n">
         <v>0.105</v>
@@ -3146,7 +3146,7 @@
         <v>0.01069</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0154925461476981</v>
+        <v>0.0154938293323632</v>
       </c>
       <c r="H34" t="n">
         <v>0.105</v>
@@ -3227,7 +3227,7 @@
         <v>0.41</v>
       </c>
       <c r="G35" t="n">
-        <v>0.457390519076283</v>
+        <v>0.457495521454198</v>
       </c>
       <c r="H35" t="n">
         <v>1.36</v>
@@ -3308,7 +3308,7 @@
         <v>0.41</v>
       </c>
       <c r="G36" t="n">
-        <v>0.457390519076283</v>
+        <v>0.457495521454198</v>
       </c>
       <c r="H36" t="n">
         <v>1.36</v>
@@ -3385,7 +3385,7 @@
         <v>0.421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.465099510681717</v>
+        <v>0.465155827482347</v>
       </c>
       <c r="H37" t="n">
         <v>1.435</v>
@@ -3462,7 +3462,7 @@
         <v>0.421</v>
       </c>
       <c r="G38" t="n">
-        <v>0.465099510681717</v>
+        <v>0.465155827482347</v>
       </c>
       <c r="H38" t="n">
         <v>1.435</v>
@@ -3697,13 +3697,13 @@
         <v>1.65</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88482806951228</v>
+        <v>1.86493856287704</v>
       </c>
       <c r="H41" t="n">
-        <v>6.61085925677348</v>
+        <v>6.5863066406764</v>
       </c>
       <c r="I41" t="n">
-        <v>5.6707</v>
+        <v>5.52</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -3714,7 +3714,7 @@
         <v>2.5</v>
       </c>
       <c r="N41" t="n">
-        <v>5.41</v>
+        <v>5.05669</v>
       </c>
       <c r="O41" t="n">
         <v>1864903</v>
@@ -3778,7 +3778,7 @@
         <v>0.0195</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0199114664753263</v>
+        <v>0.0199115286906924</v>
       </c>
       <c r="H42" t="n">
         <v>0.05</v>
@@ -3859,7 +3859,7 @@
         <v>0.0195</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0199114664753263</v>
+        <v>0.0199115286906924</v>
       </c>
       <c r="H43" t="n">
         <v>0.05</v>
@@ -4280,7 +4280,7 @@
         <v>0.01083</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0171720869702457</v>
+        <v>0.0171731337098412</v>
       </c>
       <c r="H48" t="n">
         <v>0.105</v>
@@ -4361,7 +4361,7 @@
         <v>0.01083</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0171720869702457</v>
+        <v>0.0171731337098412</v>
       </c>
       <c r="H49" t="n">
         <v>0.105</v>
@@ -4442,7 +4442,7 @@
         <v>0.426</v>
       </c>
       <c r="G50" t="n">
-        <v>0.470546030771837</v>
+        <v>0.470599175348012</v>
       </c>
       <c r="H50" t="n">
         <v>1.36</v>
@@ -4523,7 +4523,7 @@
         <v>0.426</v>
       </c>
       <c r="G51" t="n">
-        <v>0.470546030771837</v>
+        <v>0.470599175348012</v>
       </c>
       <c r="H51" t="n">
         <v>1.36</v>
@@ -4600,7 +4600,7 @@
         <v>0.4735</v>
       </c>
       <c r="G52" t="n">
-        <v>0.481547716229605</v>
+        <v>0.481605038687389</v>
       </c>
       <c r="H52" t="n">
         <v>1.435</v>
@@ -4677,7 +4677,7 @@
         <v>0.4735</v>
       </c>
       <c r="G53" t="n">
-        <v>0.481547716229605</v>
+        <v>0.481605038687389</v>
       </c>
       <c r="H53" t="n">
         <v>1.435</v>
@@ -5066,13 +5066,13 @@
         <v>1.4</v>
       </c>
       <c r="G58" t="n">
-        <v>1.65004449356521</v>
+        <v>1.63057816792221</v>
       </c>
       <c r="H58" t="n">
-        <v>6.61085925677348</v>
+        <v>6.5863066406764</v>
       </c>
       <c r="I58" t="n">
-        <v>5.65303</v>
+        <v>5.515</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5083,7 +5083,7 @@
         <v>2.251</v>
       </c>
       <c r="N58" t="n">
-        <v>5.37</v>
+        <v>5.05116</v>
       </c>
       <c r="O58" t="n">
         <v>1864903</v>
@@ -5147,7 +5147,7 @@
         <v>0.02</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0200679214570984</v>
+        <v>0.020067893897277</v>
       </c>
       <c r="H59" t="n">
         <v>0.05</v>
@@ -5228,7 +5228,7 @@
         <v>0.02</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0200679214570984</v>
+        <v>0.020067893897277</v>
       </c>
       <c r="H60" t="n">
         <v>0.05</v>
@@ -5649,7 +5649,7 @@
         <v>0.01677</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0200414685251707</v>
+        <v>0.0200385418108098</v>
       </c>
       <c r="H65" t="n">
         <v>0.105</v>
@@ -5730,7 +5730,7 @@
         <v>0.01677</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0200414685251707</v>
+        <v>0.0200385418108098</v>
       </c>
       <c r="H66" t="n">
         <v>0.105</v>
@@ -5969,7 +5969,7 @@
         <v>0.4835</v>
       </c>
       <c r="G69" t="n">
-        <v>0.504897227505765</v>
+        <v>0.504923779898895</v>
       </c>
       <c r="H69" t="n">
         <v>1.435</v>
@@ -6046,7 +6046,7 @@
         <v>0.4835</v>
       </c>
       <c r="G70" t="n">
-        <v>0.504897227505765</v>
+        <v>0.504923779898895</v>
       </c>
       <c r="H70" t="n">
         <v>1.435</v>
@@ -6516,13 +6516,13 @@
         <v>1.1</v>
       </c>
       <c r="G76" t="n">
-        <v>1.52845661812648</v>
+        <v>1.50766304300781</v>
       </c>
       <c r="H76" t="n">
-        <v>6.61085925677348</v>
+        <v>6.5863066406764</v>
       </c>
       <c r="I76" t="n">
-        <v>5.70605</v>
+        <v>5.53</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -6533,7 +6533,7 @@
         <v>2.002</v>
       </c>
       <c r="N76" t="n">
-        <v>5.49</v>
+        <v>5.06776</v>
       </c>
       <c r="O76" t="n">
         <v>1864903</v>
@@ -6597,7 +6597,7 @@
         <v>0.019</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0186983087999563</v>
+        <v>0.0186982817236406</v>
       </c>
       <c r="H77" t="n">
         <v>0.05</v>
@@ -6678,7 +6678,7 @@
         <v>0.019</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0186983087999563</v>
+        <v>0.0186982817236406</v>
       </c>
       <c r="H78" t="n">
         <v>0.05</v>
@@ -7176,7 +7176,7 @@
         <v>0.01678</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0203488678524287</v>
+        <v>0.0203460746704467</v>
       </c>
       <c r="H84" t="n">
         <v>0.105</v>
@@ -7257,7 +7257,7 @@
         <v>0.01678</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0203488678524287</v>
+        <v>0.0203460746704467</v>
       </c>
       <c r="H85" t="n">
         <v>0.105</v>
@@ -8120,10 +8120,10 @@
         <v>0.855</v>
       </c>
       <c r="G96" t="n">
-        <v>1.22937021241978</v>
+        <v>1.18384903681375</v>
       </c>
       <c r="H96" t="n">
-        <v>6.61085925677348</v>
+        <v>5.06913812776568</v>
       </c>
       <c r="I96" t="n">
         <v>4.42</v>
@@ -8201,7 +8201,7 @@
         <v>0.019</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0177333965192546</v>
+        <v>0.0177333694429388</v>
       </c>
       <c r="H97" t="n">
         <v>0.05</v>
@@ -8282,7 +8282,7 @@
         <v>0.019</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0177333965192546</v>
+        <v>0.0177333694429388</v>
       </c>
       <c r="H98" t="n">
         <v>0.05</v>
@@ -8780,7 +8780,7 @@
         <v>0.01386</v>
       </c>
       <c r="G104" t="n">
-        <v>0.017828260050038</v>
+        <v>0.0178266676023077</v>
       </c>
       <c r="H104" t="n">
         <v>0.105</v>
@@ -8861,7 +8861,7 @@
         <v>0.01386</v>
       </c>
       <c r="G105" t="n">
-        <v>0.017828260050038</v>
+        <v>0.0178266676023077</v>
       </c>
       <c r="H105" t="n">
         <v>0.105</v>
@@ -9801,7 +9801,7 @@
         <v>0.017</v>
       </c>
       <c r="G117" t="n">
-        <v>0.016834940321682</v>
+        <v>0.0168348551113345</v>
       </c>
       <c r="H117" t="n">
         <v>0.03</v>
@@ -9882,7 +9882,7 @@
         <v>0.017</v>
       </c>
       <c r="G118" t="n">
-        <v>0.016834940321682</v>
+        <v>0.0168348551113345</v>
       </c>
       <c r="H118" t="n">
         <v>0.03</v>
@@ -10380,7 +10380,7 @@
         <v>0.009220000000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0145517125345905</v>
+        <v>0.0145573007020618</v>
       </c>
       <c r="H124" t="n">
         <v>0.0571152624174129</v>
@@ -10391,7 +10391,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00234</v>
+        <v>0.00237</v>
       </c>
       <c r="M124" t="n">
         <v>0.02391</v>
@@ -10461,7 +10461,7 @@
         <v>0.009220000000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0145517125345905</v>
+        <v>0.0145573007020618</v>
       </c>
       <c r="H125" t="n">
         <v>0.0571152624174129</v>
@@ -10472,7 +10472,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00234</v>
+        <v>0.00237</v>
       </c>
       <c r="M125" t="n">
         <v>0.02391</v>
@@ -10542,7 +10542,7 @@
         <v>0.42</v>
       </c>
       <c r="G126" t="n">
-        <v>0.414149896181122</v>
+        <v>0.414193183663895</v>
       </c>
       <c r="H126" t="n">
         <v>1.09</v>
@@ -10623,7 +10623,7 @@
         <v>0.42</v>
       </c>
       <c r="G127" t="n">
-        <v>0.414149896181122</v>
+        <v>0.414193183663895</v>
       </c>
       <c r="H127" t="n">
         <v>1.09</v>
@@ -10777,7 +10777,7 @@
         <v>0.458</v>
       </c>
       <c r="G129" t="n">
-        <v>0.438550156728161</v>
+        <v>0.438606881830423</v>
       </c>
       <c r="H129" t="n">
         <v>1.117</v>
@@ -10854,7 +10854,7 @@
         <v>0.458</v>
       </c>
       <c r="G130" t="n">
-        <v>0.438550156728161</v>
+        <v>0.438606881830423</v>
       </c>
       <c r="H130" t="n">
         <v>1.117</v>
@@ -11401,7 +11401,7 @@
         <v>0.0165</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0175043579829873</v>
+        <v>0.0175042741928123</v>
       </c>
       <c r="H137" t="n">
         <v>0.047</v>
@@ -11482,7 +11482,7 @@
         <v>0.0165</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0175043579829873</v>
+        <v>0.0175042741928123</v>
       </c>
       <c r="H138" t="n">
         <v>0.047</v>
@@ -11977,10 +11977,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.00365</v>
+        <v>0.00369</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0100558604107632</v>
+        <v>0.0100726016576617</v>
       </c>
       <c r="H144" t="n">
         <v>0.0537983899173207</v>
@@ -11991,7 +11991,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00234</v>
+        <v>0.00237</v>
       </c>
       <c r="M144" t="n">
         <v>0.02274</v>
@@ -12058,10 +12058,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00365</v>
+        <v>0.00369</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0100558604107632</v>
+        <v>0.0100726016576617</v>
       </c>
       <c r="H145" t="n">
         <v>0.0537983899173207</v>
@@ -12072,7 +12072,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00234</v>
+        <v>0.00237</v>
       </c>
       <c r="M145" t="n">
         <v>0.02274</v>
@@ -12142,7 +12142,7 @@
         <v>0.3872</v>
       </c>
       <c r="G146" t="n">
-        <v>0.382716191647088</v>
+        <v>0.38279978692835</v>
       </c>
       <c r="H146" t="n">
         <v>0.98</v>
@@ -12153,7 +12153,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.01006</v>
+        <v>0.01129</v>
       </c>
       <c r="M146" t="n">
         <v>0.7009</v>
@@ -12223,7 +12223,7 @@
         <v>0.3872</v>
       </c>
       <c r="G147" t="n">
-        <v>0.382716191647088</v>
+        <v>0.38279978692835</v>
       </c>
       <c r="H147" t="n">
         <v>0.98</v>
@@ -12234,7 +12234,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.01006</v>
+        <v>0.01129</v>
       </c>
       <c r="M147" t="n">
         <v>0.7009</v>
@@ -12377,7 +12377,7 @@
         <v>0.4035</v>
       </c>
       <c r="G149" t="n">
-        <v>0.398000894600369</v>
+        <v>0.398107684196696</v>
       </c>
       <c r="H149" t="n">
         <v>1.017</v>
@@ -12388,7 +12388,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.0238</v>
+        <v>0.02533</v>
       </c>
       <c r="M149" t="n">
         <v>0.7255</v>
@@ -12454,7 +12454,7 @@
         <v>0.4035</v>
       </c>
       <c r="G150" t="n">
-        <v>0.398000894600369</v>
+        <v>0.398107684196696</v>
       </c>
       <c r="H150" t="n">
         <v>1.017</v>
@@ -12465,7 +12465,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.0238</v>
+        <v>0.02533</v>
       </c>
       <c r="M150" t="n">
         <v>0.7255</v>
@@ -13577,10 +13577,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.00342</v>
+        <v>0.00349</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0083151921714962</v>
+        <v>0.008336211382791101</v>
       </c>
       <c r="H164" t="n">
         <v>0.0641698024951344</v>
@@ -13591,7 +13591,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
-        <v>0.00234</v>
+        <v>0.00237</v>
       </c>
       <c r="M164" t="n">
         <v>0.01694</v>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.00342</v>
+        <v>0.00349</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0083151921714962</v>
+        <v>0.008336211382791101</v>
       </c>
       <c r="H165" t="n">
         <v>0.0641698024951344</v>
@@ -13672,7 +13672,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00234</v>
+        <v>0.00237</v>
       </c>
       <c r="M165" t="n">
         <v>0.01694</v>
@@ -13742,7 +13742,7 @@
         <v>0.3805</v>
       </c>
       <c r="G166" t="n">
-        <v>0.390782858313755</v>
+        <v>0.390866453595016</v>
       </c>
       <c r="H166" t="n">
         <v>1.11</v>
@@ -13753,7 +13753,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.01006</v>
+        <v>0.01129</v>
       </c>
       <c r="M166" t="n">
         <v>0.70931</v>
@@ -13823,7 +13823,7 @@
         <v>0.3805</v>
       </c>
       <c r="G167" t="n">
-        <v>0.390782858313755</v>
+        <v>0.390866453595016</v>
       </c>
       <c r="H167" t="n">
         <v>1.11</v>
@@ -13834,7 +13834,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.01006</v>
+        <v>0.01129</v>
       </c>
       <c r="M167" t="n">
         <v>0.70931</v>
@@ -13977,7 +13977,7 @@
         <v>0.39</v>
       </c>
       <c r="G169" t="n">
-        <v>0.404000894600368</v>
+        <v>0.404107684196696</v>
       </c>
       <c r="H169" t="n">
         <v>1.15</v>
@@ -13988,7 +13988,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.0238</v>
+        <v>0.02533</v>
       </c>
       <c r="M169" t="n">
         <v>0.7261</v>
@@ -14054,7 +14054,7 @@
         <v>0.39</v>
       </c>
       <c r="G170" t="n">
-        <v>0.404000894600368</v>
+        <v>0.404107684196696</v>
       </c>
       <c r="H170" t="n">
         <v>1.15</v>
@@ -14065,7 +14065,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.0238</v>
+        <v>0.02533</v>
       </c>
       <c r="M170" t="n">
         <v>0.7261</v>
@@ -15258,10 +15258,10 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.00425</v>
+        <v>0.00432</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0087484315283523</v>
+        <v>0.008777866149843</v>
       </c>
       <c r="H185" t="n">
         <v>0.0641698024951344</v>
@@ -15272,7 +15272,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.00454</v>
+        <v>0.00462</v>
       </c>
       <c r="M185" t="n">
         <v>0.01694</v>
@@ -15339,10 +15339,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.00425</v>
+        <v>0.00432</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0087484315283523</v>
+        <v>0.008777866149843</v>
       </c>
       <c r="H186" t="n">
         <v>0.0641698024951344</v>
@@ -15353,7 +15353,7 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00454</v>
+        <v>0.00462</v>
       </c>
       <c r="M186" t="n">
         <v>0.01694</v>
@@ -15423,7 +15423,7 @@
         <v>0.378</v>
       </c>
       <c r="G187" t="n">
-        <v>0.405077858313755</v>
+        <v>0.405161453595016</v>
       </c>
       <c r="H187" t="n">
         <v>1.11</v>
@@ -15504,7 +15504,7 @@
         <v>0.378</v>
       </c>
       <c r="G188" t="n">
-        <v>0.405077858313755</v>
+        <v>0.405161453595016</v>
       </c>
       <c r="H188" t="n">
         <v>1.11</v>
@@ -15658,7 +15658,7 @@
         <v>0.3925</v>
       </c>
       <c r="G190" t="n">
-        <v>0.418684227933702</v>
+        <v>0.418791017530029</v>
       </c>
       <c r="H190" t="n">
         <v>1.15</v>
@@ -15735,7 +15735,7 @@
         <v>0.3925</v>
       </c>
       <c r="G191" t="n">
-        <v>0.418684227933702</v>
+        <v>0.418791017530029</v>
       </c>
       <c r="H191" t="n">
         <v>1.15</v>
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.00594</v>
+        <v>0.00602</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0102340514116311</v>
+        <v>0.0102731630203117</v>
       </c>
       <c r="H206" t="n">
         <v>0.0641698024951344</v>
@@ -16953,7 +16953,7 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>0.00653</v>
+        <v>0.00662</v>
       </c>
       <c r="M206" t="n">
         <v>0.01694</v>
@@ -17020,10 +17020,10 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.00594</v>
+        <v>0.00602</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0102340514116311</v>
+        <v>0.0102731630203117</v>
       </c>
       <c r="H207" t="n">
         <v>0.0641698024951344</v>
@@ -17034,7 +17034,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.00653</v>
+        <v>0.00662</v>
       </c>
       <c r="M207" t="n">
         <v>0.01694</v>
@@ -17104,7 +17104,7 @@
         <v>0.369</v>
       </c>
       <c r="G208" t="n">
-        <v>0.400641291172069</v>
+        <v>0.40074817940321</v>
       </c>
       <c r="H208" t="n">
         <v>1.11</v>
@@ -17185,7 +17185,7 @@
         <v>0.369</v>
       </c>
       <c r="G209" t="n">
-        <v>0.400641291172069</v>
+        <v>0.40074817940321</v>
       </c>
       <c r="H209" t="n">
         <v>1.11</v>
@@ -17339,7 +17339,7 @@
         <v>0.385</v>
       </c>
       <c r="G211" t="n">
-        <v>0.415067561267035</v>
+        <v>0.415174350863362</v>
       </c>
       <c r="H211" t="n">
         <v>1.15</v>
@@ -17416,7 +17416,7 @@
         <v>0.385</v>
       </c>
       <c r="G212" t="n">
-        <v>0.415067561267035</v>
+        <v>0.415174350863362</v>
       </c>
       <c r="H212" t="n">
         <v>1.15</v>
@@ -17963,10 +17963,10 @@
         <v>0.38</v>
       </c>
       <c r="G219" t="n">
-        <v>0.985228902021797</v>
+        <v>0.984782496924917</v>
       </c>
       <c r="H219" t="n">
-        <v>4.84567400311167</v>
+        <v>4.82290734317076</v>
       </c>
       <c r="I219" t="n">
         <v>3.5</v>
@@ -18044,7 +18044,7 @@
         <v>0.021</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0197756508579753</v>
+        <v>0.01977582730176</v>
       </c>
       <c r="H220" t="n">
         <v>0.047</v>
@@ -18125,7 +18125,7 @@
         <v>0.021</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0197756508579753</v>
+        <v>0.01977582730176</v>
       </c>
       <c r="H221" t="n">
         <v>0.047</v>
@@ -18620,10 +18620,10 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0.007</v>
+        <v>0.00708</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0112479739611974</v>
+        <v>0.0112824244238496</v>
       </c>
       <c r="H227" t="n">
         <v>0.0641698024951344</v>
@@ -18634,7 +18634,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.00804</v>
       </c>
       <c r="M227" t="n">
         <v>0.0203</v>
@@ -18701,10 +18701,10 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0.007</v>
+        <v>0.00708</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0112479739611974</v>
+        <v>0.0112824244238496</v>
       </c>
       <c r="H228" t="n">
         <v>0.0641698024951344</v>
@@ -18715,7 +18715,7 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.00804</v>
       </c>
       <c r="M228" t="n">
         <v>0.0203</v>
@@ -18785,7 +18785,7 @@
         <v>0.373</v>
       </c>
       <c r="G229" t="n">
-        <v>0.40044747430695</v>
+        <v>0.400565042328226</v>
       </c>
       <c r="H229" t="n">
         <v>1.11</v>
@@ -18866,7 +18866,7 @@
         <v>0.373</v>
       </c>
       <c r="G230" t="n">
-        <v>0.40044747430695</v>
+        <v>0.400565042328226</v>
       </c>
       <c r="H230" t="n">
         <v>1.11</v>
@@ -19020,7 +19020,7 @@
         <v>0.39</v>
       </c>
       <c r="G232" t="n">
-        <v>0.414624253666849</v>
+        <v>0.414690122979224</v>
       </c>
       <c r="H232" t="n">
         <v>1.15</v>
@@ -19097,7 +19097,7 @@
         <v>0.39</v>
       </c>
       <c r="G233" t="n">
-        <v>0.414624253666849</v>
+        <v>0.414690122979224</v>
       </c>
       <c r="H233" t="n">
         <v>1.15</v>
@@ -19644,13 +19644,13 @@
         <v>0.8</v>
       </c>
       <c r="G240" t="n">
-        <v>1.41380483968205</v>
+        <v>1.39810254016065</v>
       </c>
       <c r="H240" t="n">
-        <v>6.16723756570251</v>
+        <v>6.50141560260491</v>
       </c>
       <c r="I240" t="n">
-        <v>4.65469</v>
+        <v>4.33024</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -19725,7 +19725,7 @@
         <v>0.019</v>
       </c>
       <c r="G241" t="n">
-        <v>0.0179790406884838</v>
+        <v>0.0179792171322685</v>
       </c>
       <c r="H241" t="n">
         <v>0.037</v>
@@ -19806,7 +19806,7 @@
         <v>0.019</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0179790406884838</v>
+        <v>0.0179792171322685</v>
       </c>
       <c r="H242" t="n">
         <v>0.037</v>
@@ -20304,7 +20304,7 @@
         <v>0.009140000000000001</v>
       </c>
       <c r="G248" t="n">
-        <v>0.011793421485421</v>
+        <v>0.0118165801782823</v>
       </c>
       <c r="H248" t="n">
         <v>0.0641698024951344</v>
@@ -20385,7 +20385,7 @@
         <v>0.009140000000000001</v>
       </c>
       <c r="G249" t="n">
-        <v>0.011793421485421</v>
+        <v>0.0118165801782823</v>
       </c>
       <c r="H249" t="n">
         <v>0.0641698024951344</v>
@@ -20466,7 +20466,7 @@
         <v>0.364</v>
       </c>
       <c r="G250" t="n">
-        <v>0.384813345934197</v>
+        <v>0.384946878236789</v>
       </c>
       <c r="H250" t="n">
         <v>1.11</v>
@@ -20547,7 +20547,7 @@
         <v>0.364</v>
       </c>
       <c r="G251" t="n">
-        <v>0.384813345934197</v>
+        <v>0.384946878236789</v>
       </c>
       <c r="H251" t="n">
         <v>1.11</v>
@@ -20701,7 +20701,7 @@
         <v>0.39</v>
       </c>
       <c r="G253" t="n">
-        <v>0.39771587351328</v>
+        <v>0.397729868338431</v>
       </c>
       <c r="H253" t="n">
         <v>1.15</v>
@@ -20778,7 +20778,7 @@
         <v>0.39</v>
       </c>
       <c r="G254" t="n">
-        <v>0.39771587351328</v>
+        <v>0.397729868338431</v>
       </c>
       <c r="H254" t="n">
         <v>1.15</v>
@@ -21325,13 +21325,13 @@
         <v>1.2</v>
       </c>
       <c r="G261" t="n">
-        <v>1.60714319748867</v>
+        <v>1.5908699052574</v>
       </c>
       <c r="H261" t="n">
-        <v>6.16723756570251</v>
+        <v>6.50141560260491</v>
       </c>
       <c r="I261" t="n">
-        <v>4.70926</v>
+        <v>4.33489</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>0.018</v>
       </c>
       <c r="G262" t="n">
-        <v>0.0186510931141473</v>
+        <v>0.0186512726000662</v>
       </c>
       <c r="H262" t="n">
         <v>0.07099999999999999</v>
@@ -21487,7 +21487,7 @@
         <v>0.018</v>
       </c>
       <c r="G263" t="n">
-        <v>0.0186510931141473</v>
+        <v>0.0186512726000662</v>
       </c>
       <c r="H263" t="n">
         <v>0.07099999999999999</v>
@@ -21985,7 +21985,7 @@
         <v>0.01002</v>
       </c>
       <c r="G269" t="n">
-        <v>0.0125826698498594</v>
+        <v>0.0126017654625054</v>
       </c>
       <c r="H269" t="n">
         <v>0.057281156322774</v>
@@ -22066,7 +22066,7 @@
         <v>0.01002</v>
       </c>
       <c r="G270" t="n">
-        <v>0.0125826698498594</v>
+        <v>0.0126017654625054</v>
       </c>
       <c r="H270" t="n">
         <v>0.057281156322774</v>
@@ -22147,7 +22147,7 @@
         <v>0.3475</v>
       </c>
       <c r="G271" t="n">
-        <v>0.345801678781305</v>
+        <v>0.345968702942948</v>
       </c>
       <c r="H271" t="n">
         <v>1.01</v>
@@ -22158,7 +22158,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="M271" t="n">
         <v>0.63524</v>
@@ -22228,7 +22228,7 @@
         <v>0.3475</v>
       </c>
       <c r="G272" t="n">
-        <v>0.345801678781305</v>
+        <v>0.345968702942948</v>
       </c>
       <c r="H272" t="n">
         <v>1.01</v>
@@ -22239,7 +22239,7 @@
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="M272" t="n">
         <v>0.63524</v>
@@ -22382,7 +22382,7 @@
         <v>0.38</v>
       </c>
       <c r="G274" t="n">
-        <v>0.359331664435923</v>
+        <v>0.359345900551162</v>
       </c>
       <c r="H274" t="n">
         <v>1.03</v>
@@ -22459,7 +22459,7 @@
         <v>0.38</v>
       </c>
       <c r="G275" t="n">
-        <v>0.359331664435923</v>
+        <v>0.359345900551162</v>
       </c>
       <c r="H275" t="n">
         <v>1.03</v>
@@ -22818,6 +22818,1687 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.3884</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0.3965</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P280" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="G281" t="n">
+        <v>62.8747222222222</v>
+      </c>
+      <c r="H281" t="n">
+        <v>285</v>
+      </c>
+      <c r="I281" t="n">
+        <v>183</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>44</v>
+      </c>
+      <c r="M281" t="n">
+        <v>125</v>
+      </c>
+      <c r="N281" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P281" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1.64718575073881</v>
+      </c>
+      <c r="H282" t="n">
+        <v>6.50141560260491</v>
+      </c>
+      <c r="I282" t="n">
+        <v>4.33954</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>3</v>
+      </c>
+      <c r="N282" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O282" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P282" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0180995484621352</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0.02464</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.02986</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P283" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0180995484621352</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.02464</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.02986</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P284" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>596.275862068965</v>
+      </c>
+      <c r="H285" t="n">
+        <v>7945</v>
+      </c>
+      <c r="I285" t="n">
+        <v>4186.4</v>
+      </c>
+      <c r="J285" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K285" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L285" t="n">
+        <v>70</v>
+      </c>
+      <c r="M285" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="N285" t="n">
+        <v>1790.52</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P285" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="G286" t="n">
+        <v>596.275862068965</v>
+      </c>
+      <c r="H286" t="n">
+        <v>7945</v>
+      </c>
+      <c r="I286" t="n">
+        <v>4186.4</v>
+      </c>
+      <c r="J286" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K286" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L286" t="n">
+        <v>70</v>
+      </c>
+      <c r="M286" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="N286" t="n">
+        <v>1790.52</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P286" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="G287" t="n">
+        <v>596.275862068965</v>
+      </c>
+      <c r="H287" t="n">
+        <v>7945</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4186.4</v>
+      </c>
+      <c r="J287" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K287" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L287" t="n">
+        <v>70</v>
+      </c>
+      <c r="M287" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="N287" t="n">
+        <v>1790.52</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P287" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="G288" t="n">
+        <v>596.275862068965</v>
+      </c>
+      <c r="H288" t="n">
+        <v>7945</v>
+      </c>
+      <c r="I288" t="n">
+        <v>4186.4</v>
+      </c>
+      <c r="J288" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K288" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L288" t="n">
+        <v>70</v>
+      </c>
+      <c r="M288" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="N288" t="n">
+        <v>1790.52</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P288" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>101</v>
+      </c>
+      <c r="G289" t="n">
+        <v>99.30800000000001</v>
+      </c>
+      <c r="H289" t="n">
+        <v>104</v>
+      </c>
+      <c r="I289" t="n">
+        <v>104</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="M289" t="n">
+        <v>103.3385</v>
+      </c>
+      <c r="N289" t="n">
+        <v>104</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P289" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>0.01023</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0131915908744556</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.057281156322774</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.03433</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>0.00996</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.02228</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.02819</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P290" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>0.01023</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0131915908744556</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.057281156322774</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.03433</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>0.00996</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0.02228</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.02819</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P291" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.383399737425707</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>0.02132</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.67364</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.85538</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P292" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.383399737425707</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>0.02132</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.67364</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.85538</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G294" t="n">
+        <v>5.477</v>
+      </c>
+      <c r="H294" t="n">
+        <v>6.257</v>
+      </c>
+      <c r="I294" t="n">
+        <v>6.257</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>5.194</v>
+      </c>
+      <c r="M294" t="n">
+        <v>6.23355</v>
+      </c>
+      <c r="N294" t="n">
+        <v>6.257</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.397440728137369</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.69292</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.87496</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.397440728137369</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.69292</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.87496</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.625689655172414</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1.2172</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P297" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.625689655172414</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="N298" t="n">
+        <v>1.2172</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0543965517241379</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.1668</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.06604</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.1451</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P299" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Manawatu at Weber Road</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0543965517241379</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.1668</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.06604</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.1451</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1864903</v>
+      </c>
+      <c r="P300" t="n">
+        <v>5540903</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
+++ b/state_results/Rivers/ManawatuatWeberRoad_35eafad538.xlsx
@@ -1769,13 +1769,13 @@
         <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.85349504206863</v>
+        <v>1.81750185272701</v>
       </c>
       <c r="H17" t="n">
-        <v>6.5863066406764</v>
+        <v>5.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.555</v>
+        <v>5.35716</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1786,7 +1786,7 @@
         <v>2.5</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1652</v>
+        <v>5.04458</v>
       </c>
       <c r="O17" t="n">
         <v>1864903</v>
@@ -2482,13 +2482,13 @@
         <v>1.75</v>
       </c>
       <c r="G26" t="n">
-        <v>1.829702954458</v>
+        <v>1.79007714543544</v>
       </c>
       <c r="H26" t="n">
-        <v>6.5863066406764</v>
+        <v>5.6</v>
       </c>
       <c r="I26" t="n">
-        <v>5.505</v>
+        <v>5.19844</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
         <v>2.517</v>
       </c>
       <c r="N26" t="n">
-        <v>5.0401</v>
+        <v>4.9832</v>
       </c>
       <c r="O26" t="n">
         <v>1864903</v>
@@ -3697,13 +3697,13 @@
         <v>1.65</v>
       </c>
       <c r="G41" t="n">
-        <v>1.86493856287704</v>
+        <v>1.82272846196171</v>
       </c>
       <c r="H41" t="n">
-        <v>6.5863066406764</v>
+        <v>5.6</v>
       </c>
       <c r="I41" t="n">
-        <v>5.52</v>
+        <v>5.24606</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -3714,7 +3714,7 @@
         <v>2.5</v>
       </c>
       <c r="N41" t="n">
-        <v>5.05669</v>
+        <v>4.9928</v>
       </c>
       <c r="O41" t="n">
         <v>1864903</v>
@@ -5066,13 +5066,13 @@
         <v>1.4</v>
       </c>
       <c r="G58" t="n">
-        <v>1.63057816792221</v>
+        <v>1.58926615426039</v>
       </c>
       <c r="H58" t="n">
-        <v>6.5863066406764</v>
+        <v>5.6</v>
       </c>
       <c r="I58" t="n">
-        <v>5.515</v>
+        <v>5.23019</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5083,7 +5083,7 @@
         <v>2.251</v>
       </c>
       <c r="N58" t="n">
-        <v>5.05116</v>
+        <v>4.87811</v>
       </c>
       <c r="O58" t="n">
         <v>1864903</v>
@@ -6516,13 +6516,13 @@
         <v>1.1</v>
       </c>
       <c r="G76" t="n">
-        <v>1.50766304300781</v>
+        <v>1.46353430114178</v>
       </c>
       <c r="H76" t="n">
-        <v>6.5863066406764</v>
+        <v>5.6</v>
       </c>
       <c r="I76" t="n">
-        <v>5.53</v>
+        <v>5.2778</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -6533,7 +6533,7 @@
         <v>2.002</v>
       </c>
       <c r="N76" t="n">
-        <v>5.06776</v>
+        <v>4.99062</v>
       </c>
       <c r="O76" t="n">
         <v>1864903</v>
@@ -8120,13 +8120,13 @@
         <v>0.855</v>
       </c>
       <c r="G96" t="n">
-        <v>1.18384903681375</v>
+        <v>1.16802755864368</v>
       </c>
       <c r="H96" t="n">
-        <v>5.06913812776568</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>4.42</v>
+        <v>4.04497</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -17963,10 +17963,10 @@
         <v>0.38</v>
       </c>
       <c r="G219" t="n">
-        <v>0.984782496924917</v>
+        <v>1.00106943713898</v>
       </c>
       <c r="H219" t="n">
-        <v>4.82290734317076</v>
+        <v>5.65354129408788</v>
       </c>
       <c r="I219" t="n">
         <v>3.5</v>
@@ -19644,13 +19644,13 @@
         <v>0.8</v>
       </c>
       <c r="G240" t="n">
-        <v>1.39810254016065</v>
+        <v>1.41160917483235</v>
       </c>
       <c r="H240" t="n">
-        <v>6.50141560260491</v>
+        <v>6.37807248571884</v>
       </c>
       <c r="I240" t="n">
-        <v>4.33024</v>
+        <v>4.37092</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -21325,13 +21325,13 @@
         <v>1.2</v>
       </c>
       <c r="G261" t="n">
-        <v>1.5908699052574</v>
+        <v>1.60486769028079</v>
       </c>
       <c r="H261" t="n">
-        <v>6.50141560260491</v>
+        <v>6.37807248571884</v>
       </c>
       <c r="I261" t="n">
-        <v>4.33489</v>
+        <v>4.38183</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -23006,13 +23006,13 @@
         <v>1.3</v>
       </c>
       <c r="G282" t="n">
-        <v>1.64718575073881</v>
+        <v>1.66171175406498</v>
       </c>
       <c r="H282" t="n">
-        <v>6.50141560260491</v>
+        <v>6.37807248571884</v>
       </c>
       <c r="I282" t="n">
-        <v>4.33954</v>
+        <v>4.39274</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
